--- a/data/output/FV2304_FV2210/ORDERS/17006.xlsx
+++ b/data/output/FV2304_FV2210/ORDERS/17006.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="159">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="159">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -596,6 +596,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U66" totalsRowShown="0">
+  <autoFilter ref="A1:U66"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -885,7 +915,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3800,5 +3833,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/ORDERS/17006.xlsx
+++ b/data/output/FV2304_FV2210/ORDERS/17006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="225">
   <si>
     <t>#</t>
   </si>
@@ -4049,44 +4049,42 @@
       <c r="V61" s="9"/>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5" t="s">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5" t="s">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K62" s="5"/>
-      <c r="L62" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M62" s="5" t="s">
+      <c r="K62" s="2"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5" t="s">
+      <c r="N62" s="2"/>
+      <c r="O62" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5" t="s">
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="V62" s="5"/>
+      <c r="V62" s="2"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -4114,9 +4112,7 @@
         <v>131</v>
       </c>
       <c r="K63" s="5"/>
-      <c r="L63" s="7" t="s">
-        <v>142</v>
-      </c>
+      <c r="L63" s="4"/>
       <c r="M63" s="5" t="s">
         <v>33</v>
       </c>
@@ -4141,44 +4137,42 @@
       <c r="V63" s="5"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5" t="s">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5" t="s">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K64" s="5"/>
-      <c r="L64" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M64" s="5" t="s">
+      <c r="K64" s="2"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5" t="s">
+      <c r="N64" s="2"/>
+      <c r="O64" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5" t="s">
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="V64" s="5"/>
+      <c r="V64" s="2"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">
@@ -4204,9 +4198,7 @@
         <v>131</v>
       </c>
       <c r="K65" s="5"/>
-      <c r="L65" s="7" t="s">
-        <v>142</v>
-      </c>
+      <c r="L65" s="4"/>
       <c r="M65" s="5" t="s">
         <v>34</v>
       </c>
@@ -4252,9 +4244,7 @@
         <v>131</v>
       </c>
       <c r="K66" s="5"/>
-      <c r="L66" s="7" t="s">
-        <v>142</v>
-      </c>
+      <c r="L66" s="4"/>
       <c r="M66" s="5" t="s">
         <v>34</v>
       </c>

--- a/data/output/FV2304_FV2210/ORDERS/17006.xlsx
+++ b/data/output/FV2304_FV2210/ORDERS/17006.xlsx
@@ -784,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -809,6 +809,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1249,7 +1252,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1585,7 +1588,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1719,7 +1722,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -1907,7 +1910,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2095,7 +2098,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -2183,7 +2186,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2371,7 +2374,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2667,7 +2670,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -2853,7 +2856,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3213,7 +3216,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -3509,7 +3512,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -3792,19 +3795,19 @@
       <c r="M55" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="N55" s="9" t="s">
+      <c r="N55" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9" t="s">
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="V55" s="9" t="s">
+      <c r="V55" s="10" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3825,24 +3828,24 @@
       <c r="L56" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="M56" s="9" t="s">
+      <c r="M56" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="N56" s="9" t="s">
+      <c r="N56" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="O56" s="9" t="s">
+      <c r="O56" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9" t="s">
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="V56" s="9"/>
+      <c r="V56" s="10"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -3861,28 +3864,28 @@
       <c r="L57" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="M57" s="9" t="s">
+      <c r="M57" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="N57" s="9" t="s">
+      <c r="N57" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="O57" s="9" t="s">
+      <c r="O57" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="P57" s="9" t="s">
+      <c r="P57" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9" t="s">
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="U57" s="9" t="s">
+      <c r="U57" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="V57" s="9" t="s">
+      <c r="V57" s="10" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3906,21 +3909,21 @@
       <c r="M58" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="N58" s="9" t="s">
+      <c r="N58" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="O58" s="9" t="s">
+      <c r="O58" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9" t="s">
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="V58" s="9"/>
+      <c r="V58" s="10"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
@@ -3939,30 +3942,30 @@
       <c r="L59" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="M59" s="9" t="s">
+      <c r="M59" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="N59" s="9" t="s">
+      <c r="N59" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="O59" s="9" t="s">
+      <c r="O59" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P59" s="9" t="s">
+      <c r="P59" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9" t="s">
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9" t="s">
+      <c r="S59" s="10"/>
+      <c r="T59" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="U59" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="V59" s="9"/>
+      <c r="U59" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="V59" s="10"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="5" t="s">
@@ -3981,30 +3984,30 @@
       <c r="L60" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="M60" s="9" t="s">
+      <c r="M60" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="N60" s="9" t="s">
+      <c r="N60" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="O60" s="9" t="s">
+      <c r="O60" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P60" s="9" t="s">
+      <c r="P60" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9" t="s">
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9" t="s">
+      <c r="S60" s="10"/>
+      <c r="T60" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="U60" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="V60" s="9"/>
+      <c r="U60" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="V60" s="10"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -4023,30 +4026,30 @@
       <c r="L61" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="M61" s="9" t="s">
+      <c r="M61" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="N61" s="9" t="s">
+      <c r="N61" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="O61" s="9" t="s">
+      <c r="O61" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P61" s="9" t="s">
+      <c r="P61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9" t="s">
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9" t="s">
+      <c r="S61" s="10"/>
+      <c r="T61" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="U61" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="V61" s="9"/>
+      <c r="U61" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="V61" s="10"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="2" t="s">
@@ -4069,7 +4072,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N62" s="2"/>
@@ -4157,7 +4160,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N64" s="2"/>
